--- a/GP03FLMB/Omaha_Cal_Info_GP03FLMB_00003.xlsx
+++ b/GP03FLMB/Omaha_Cal_Info_GP03FLMB_00003.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\GP03FLMB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="2460" windowWidth="24900" windowHeight="12620"/>
+    <workbookView xWindow="2955" yWindow="2460" windowWidth="24900" windowHeight="12615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -17,12 +22,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="140001"/>
 </workbook>
 </file>
 
@@ -194,12 +194,6 @@
     <t>TN-323</t>
   </si>
   <si>
-    <t>GP03FLMB-RIM01-01-SIOENG000</t>
-  </si>
-  <si>
-    <t>GP03FLMB-RIS01-01-SIOENG000</t>
-  </si>
-  <si>
     <t>Units in mm</t>
   </si>
   <si>
@@ -245,13 +239,19 @@
     <t>GP03FLMB-RIM01-02-CTDMOG068</t>
   </si>
   <si>
-    <t>GP03FLMB-RIM01-02-CTDMOG069</t>
-  </si>
-  <si>
-    <t>GP03FLMB-RIM01-02-CTDMOG070</t>
-  </si>
-  <si>
-    <t>GP03FLMB-RIM01-02-CTDMOG071</t>
+    <t>GP03FLMB-RIM01-02-CTDMOH071</t>
+  </si>
+  <si>
+    <t>GP03FLMB-RIM01-02-CTDMOH070</t>
+  </si>
+  <si>
+    <t>GP03FLMB-RIM01-02-CTDMOH069</t>
+  </si>
+  <si>
+    <t>GP03FLMB-FMS01-01-ENG000000</t>
+  </si>
+  <si>
+    <t>GP03FLMB-FMM01-02-ENG000000</t>
   </si>
 </sst>
 </file>
@@ -259,10 +259,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -570,7 +570,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="214">
+  <cellStyleXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -634,14 +634,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -785,8 +785,9 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -827,22 +828,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -914,7 +915,7 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
@@ -932,7 +933,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -961,7 +961,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="214">
+  <cellStyles count="215">
     <cellStyle name="Comma 2" xfId="63"/>
     <cellStyle name="Comma 2 2" xfId="64"/>
     <cellStyle name="Comma 2 2 2" xfId="65"/>
@@ -1072,6 +1072,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="16"/>
     <cellStyle name="Normal 11" xfId="17"/>
+    <cellStyle name="Normal 11 2" xfId="214"/>
     <cellStyle name="Normal 12" xfId="18"/>
     <cellStyle name="Normal 13" xfId="19"/>
     <cellStyle name="Normal 14" xfId="58"/>
@@ -1183,12 +1184,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -1493,29 +1497,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="8" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="8"/>
+    <col min="7" max="7" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" ht="28">
+    <row r="1" spans="1:13" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="20" customFormat="1">
+    <row r="2" spans="1:13" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
@@ -1583,7 +1587,7 @@
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1">
+    <row r="3" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="42"/>
       <c r="E3" s="43"/>
       <c r="F3" s="42"/>
@@ -1601,30 +1605,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="13" customWidth="1"/>
-    <col min="8" max="11" width="10.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="13" customWidth="1"/>
+    <col min="8" max="11" width="10.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="2"/>
+    <col min="13" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="16" customFormat="1">
+    <row r="1" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1653,7 +1657,7 @@
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="31"/>
@@ -1668,9 +1672,9 @@
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="60" t="s">
-        <v>60</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
+        <v>58</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>51</v>
@@ -1678,13 +1682,13 @@
       <c r="C3" s="13">
         <v>3</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="52">
         <v>1004</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="57">
         <v>1.6750000000000001E-6</v>
       </c>
       <c r="G3" s="31" t="s">
@@ -1699,9 +1703,9 @@
       <c r="L3" s="30"/>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="60" t="s">
-        <v>60</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
+        <v>58</v>
       </c>
       <c r="B4" s="45" t="s">
         <v>51</v>
@@ -1709,7 +1713,7 @@
       <c r="C4" s="47">
         <v>3</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="52">
         <v>1004</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -1728,9 +1732,9 @@
       <c r="L4" s="30"/>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="60" t="s">
-        <v>60</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="59" t="s">
+        <v>58</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>51</v>
@@ -1738,7 +1742,7 @@
       <c r="C5" s="47">
         <v>3</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="52">
         <v>1004</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1755,9 +1759,9 @@
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="60" t="s">
-        <v>60</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="59" t="s">
+        <v>58</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>51</v>
@@ -1765,7 +1769,7 @@
       <c r="C6" s="47">
         <v>3</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="52">
         <v>1004</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1782,9 +1786,9 @@
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="60" t="s">
-        <v>60</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="59" t="s">
+        <v>58</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>51</v>
@@ -1792,7 +1796,7 @@
       <c r="C7" s="47">
         <v>3</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="52">
         <v>1004</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -1809,9 +1813,9 @@
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="60" t="s">
-        <v>60</v>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="59" t="s">
+        <v>58</v>
       </c>
       <c r="B8" s="45" t="s">
         <v>51</v>
@@ -1819,13 +1823,13 @@
       <c r="C8" s="47">
         <v>3</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="52">
         <v>1004</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="58">
         <v>49</v>
       </c>
       <c r="G8" s="31"/>
@@ -1836,9 +1840,9 @@
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="60" t="s">
-        <v>60</v>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="59" t="s">
+        <v>58</v>
       </c>
       <c r="B9" s="45" t="s">
         <v>51</v>
@@ -1846,13 +1850,13 @@
       <c r="C9" s="47">
         <v>3</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="52">
         <v>1004</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="56">
         <v>124</v>
       </c>
       <c r="G9" s="31" t="s">
@@ -1865,9 +1869,9 @@
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="60" t="s">
-        <v>60</v>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="59" t="s">
+        <v>58</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>51</v>
@@ -1875,7 +1879,7 @@
       <c r="C10" s="47">
         <v>3</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="52">
         <v>1004</v>
       </c>
       <c r="E10" s="40" t="s">
@@ -1894,9 +1898,9 @@
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="60" t="s">
-        <v>60</v>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="59" t="s">
+        <v>58</v>
       </c>
       <c r="B11" s="45" t="s">
         <v>51</v>
@@ -1904,13 +1908,13 @@
       <c r="C11" s="47">
         <v>3</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="52">
         <v>1004</v>
       </c>
       <c r="E11" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="56">
         <v>1.0760000000000001</v>
       </c>
       <c r="G11" s="31" t="s">
@@ -1923,9 +1927,9 @@
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="60" t="s">
-        <v>60</v>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="59" t="s">
+        <v>58</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>51</v>
@@ -1933,7 +1937,7 @@
       <c r="C12" s="47">
         <v>3</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="52">
         <v>1004</v>
       </c>
       <c r="E12" s="40" t="s">
@@ -1952,7 +1956,7 @@
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="34"/>
       <c r="B13" s="45"/>
       <c r="C13" s="47"/>
@@ -1967,9 +1971,9 @@
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="60" t="s">
-        <v>61</v>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="B14" s="46" t="s">
         <v>51</v>
@@ -1977,8 +1981,8 @@
       <c r="C14" s="13">
         <v>3</v>
       </c>
-      <c r="D14" s="53" t="s">
-        <v>58</v>
+      <c r="D14" s="52" t="s">
+        <v>56</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>19</v>
@@ -1998,9 +2002,9 @@
       <c r="L14" s="30"/>
       <c r="M14" s="30"/>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="60" t="s">
-        <v>61</v>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>51</v>
@@ -2008,8 +2012,8 @@
       <c r="C15" s="47">
         <v>3</v>
       </c>
-      <c r="D15" s="53" t="s">
-        <v>58</v>
+      <c r="D15" s="52" t="s">
+        <v>56</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>20</v>
@@ -2025,9 +2029,9 @@
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="60" t="s">
-        <v>61</v>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>51</v>
@@ -2035,8 +2039,8 @@
       <c r="C16" s="47">
         <v>3</v>
       </c>
-      <c r="D16" s="53" t="s">
-        <v>58</v>
+      <c r="D16" s="52" t="s">
+        <v>56</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>21</v>
@@ -2052,9 +2056,9 @@
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="60" t="s">
-        <v>61</v>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="B17" s="45" t="s">
         <v>51</v>
@@ -2062,8 +2066,8 @@
       <c r="C17" s="47">
         <v>3</v>
       </c>
-      <c r="D17" s="53" t="s">
-        <v>58</v>
+      <c r="D17" s="52" t="s">
+        <v>56</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>22</v>
@@ -2079,9 +2083,9 @@
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="60" t="s">
-        <v>61</v>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="B18" s="45" t="s">
         <v>51</v>
@@ -2089,8 +2093,8 @@
       <c r="C18" s="47">
         <v>3</v>
       </c>
-      <c r="D18" s="53" t="s">
-        <v>58</v>
+      <c r="D18" s="52" t="s">
+        <v>56</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>23</v>
@@ -2106,9 +2110,9 @@
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="60" t="s">
-        <v>61</v>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="B19" s="45" t="s">
         <v>51</v>
@@ -2116,13 +2120,13 @@
       <c r="C19" s="47">
         <v>3</v>
       </c>
-      <c r="D19" s="53" t="s">
-        <v>58</v>
+      <c r="D19" s="52" t="s">
+        <v>56</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="58">
         <v>0</v>
       </c>
       <c r="G19" s="31"/>
@@ -2133,9 +2137,9 @@
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="60" t="s">
-        <v>61</v>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="B20" s="45" t="s">
         <v>51</v>
@@ -2143,8 +2147,8 @@
       <c r="C20" s="47">
         <v>3</v>
       </c>
-      <c r="D20" s="53" t="s">
-        <v>58</v>
+      <c r="D20" s="52" t="s">
+        <v>56</v>
       </c>
       <c r="E20" s="40" t="s">
         <v>40</v>
@@ -2162,7 +2166,7 @@
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="34"/>
       <c r="B21" s="45"/>
       <c r="C21" s="47"/>
@@ -2177,7 +2181,7 @@
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>48</v>
       </c>
@@ -2187,7 +2191,7 @@
       <c r="C22" s="13">
         <v>3</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="52">
         <v>391</v>
       </c>
       <c r="E22" s="35" t="s">
@@ -2208,7 +2212,7 @@
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
         <v>48</v>
       </c>
@@ -2218,7 +2222,7 @@
       <c r="C23" s="47">
         <v>3</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="52">
         <v>391</v>
       </c>
       <c r="E23" s="35" t="s">
@@ -2237,7 +2241,7 @@
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
         <v>48</v>
       </c>
@@ -2247,14 +2251,14 @@
       <c r="C24" s="47">
         <v>3</v>
       </c>
-      <c r="D24" s="53">
+      <c r="D24" s="52">
         <v>391</v>
       </c>
       <c r="E24" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="55" t="s">
-        <v>59</v>
+      <c r="F24" s="54" t="s">
+        <v>57</v>
       </c>
       <c r="G24" s="31"/>
       <c r="H24" s="30"/>
@@ -2264,7 +2268,7 @@
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="34"/>
       <c r="B25" s="45"/>
       <c r="C25" s="47"/>
@@ -2279,9 +2283,9 @@
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="60" t="s">
-        <v>62</v>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B26" s="46" t="s">
         <v>51</v>
@@ -2289,7 +2293,7 @@
       <c r="C26" s="13">
         <v>3</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="52">
         <v>22846</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -2310,9 +2314,9 @@
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="60" t="s">
-        <v>62</v>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B27" s="45" t="s">
         <v>51</v>
@@ -2320,7 +2324,7 @@
       <c r="C27" s="47">
         <v>3</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="52">
         <v>22846</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -2337,9 +2341,9 @@
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="60" t="s">
-        <v>62</v>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B28" s="45" t="s">
         <v>51</v>
@@ -2347,7 +2351,7 @@
       <c r="C28" s="47">
         <v>3</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="52">
         <v>22846</v>
       </c>
       <c r="E28" s="41" t="s">
@@ -2364,9 +2368,9 @@
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="60" t="s">
-        <v>62</v>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B29" s="45" t="s">
         <v>51</v>
@@ -2374,7 +2378,7 @@
       <c r="C29" s="47">
         <v>3</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="52">
         <v>22846</v>
       </c>
       <c r="E29" s="41" t="s">
@@ -2391,9 +2395,9 @@
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="60" t="s">
-        <v>62</v>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B30" s="45" t="s">
         <v>51</v>
@@ -2401,7 +2405,7 @@
       <c r="C30" s="47">
         <v>3</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="52">
         <v>22846</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -2410,8 +2414,8 @@
       <c r="F30" s="49">
         <v>500000</v>
       </c>
-      <c r="G30" s="55" t="s">
-        <v>57</v>
+      <c r="G30" s="54" t="s">
+        <v>55</v>
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
@@ -2420,9 +2424,9 @@
       <c r="L30" s="30"/>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="60" t="s">
-        <v>62</v>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B31" s="45" t="s">
         <v>51</v>
@@ -2430,13 +2434,13 @@
       <c r="C31" s="47">
         <v>3</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="52">
         <v>22846</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="55">
         <v>0.45</v>
       </c>
       <c r="G31" s="31"/>
@@ -2447,9 +2451,9 @@
       <c r="L31" s="30"/>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="60" t="s">
-        <v>62</v>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B32" s="45" t="s">
         <v>51</v>
@@ -2457,13 +2461,13 @@
       <c r="C32" s="47">
         <v>3</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="52">
         <v>22846</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="56">
+      <c r="F32" s="55">
         <v>0.45</v>
       </c>
       <c r="G32" s="31"/>
@@ -2474,9 +2478,9 @@
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="60" t="s">
-        <v>62</v>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B33" s="45" t="s">
         <v>51</v>
@@ -2484,13 +2488,13 @@
       <c r="C33" s="47">
         <v>3</v>
       </c>
-      <c r="D33" s="53">
+      <c r="D33" s="52">
         <v>22846</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="55">
         <v>0.45</v>
       </c>
       <c r="G33" s="31"/>
@@ -2501,9 +2505,9 @@
       <c r="L33" s="30"/>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="60" t="s">
-        <v>62</v>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B34" s="45" t="s">
         <v>51</v>
@@ -2511,13 +2515,13 @@
       <c r="C34" s="47">
         <v>3</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="52">
         <v>22846</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="56">
+      <c r="F34" s="55">
         <v>0.45</v>
       </c>
       <c r="G34" s="31"/>
@@ -2528,7 +2532,7 @@
       <c r="L34" s="30"/>
       <c r="M34" s="30"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="34"/>
       <c r="B35" s="45"/>
       <c r="C35" s="47"/>
@@ -2543,9 +2547,9 @@
       <c r="L35" s="30"/>
       <c r="M35" s="30"/>
     </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="60" t="s">
-        <v>63</v>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="59" t="s">
+        <v>61</v>
       </c>
       <c r="B36" s="46" t="s">
         <v>51</v>
@@ -2553,7 +2557,7 @@
       <c r="C36" s="13">
         <v>3</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="52">
         <v>12638</v>
       </c>
       <c r="E36" s="6" t="s">
@@ -2574,9 +2578,9 @@
       <c r="L36" s="30"/>
       <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="60" t="s">
-        <v>63</v>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="59" t="s">
+        <v>61</v>
       </c>
       <c r="B37" s="45" t="s">
         <v>51</v>
@@ -2584,7 +2588,7 @@
       <c r="C37" s="47">
         <v>3</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="52">
         <v>12638</v>
       </c>
       <c r="E37" s="6" t="s">
@@ -2601,9 +2605,9 @@
       <c r="L37" s="30"/>
       <c r="M37" s="30"/>
     </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="60" t="s">
-        <v>63</v>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="59" t="s">
+        <v>61</v>
       </c>
       <c r="B38" s="45" t="s">
         <v>51</v>
@@ -2611,7 +2615,7 @@
       <c r="C38" s="47">
         <v>3</v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="52">
         <v>12638</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -2628,9 +2632,9 @@
       <c r="L38" s="30"/>
       <c r="M38" s="30"/>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="60" t="s">
-        <v>63</v>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="59" t="s">
+        <v>61</v>
       </c>
       <c r="B39" s="45" t="s">
         <v>51</v>
@@ -2638,7 +2642,7 @@
       <c r="C39" s="47">
         <v>3</v>
       </c>
-      <c r="D39" s="53">
+      <c r="D39" s="52">
         <v>12638</v>
       </c>
       <c r="E39" s="6" t="s">
@@ -2655,7 +2659,7 @@
       <c r="L39" s="30"/>
       <c r="M39" s="30"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="34"/>
       <c r="B40" s="45"/>
       <c r="C40" s="47"/>
@@ -2665,14 +2669,10 @@
       <c r="G40" s="31"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="60" t="s">
-        <v>64</v>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="59" t="s">
+        <v>62</v>
       </c>
       <c r="B41" s="46" t="s">
         <v>51</v>
@@ -2680,7 +2680,7 @@
       <c r="C41" s="13">
         <v>3</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="52">
         <v>12405</v>
       </c>
       <c r="E41" s="6" t="s">
@@ -2696,14 +2696,10 @@
         <v>39</v>
       </c>
       <c r="I41" s="30"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="60" t="s">
-        <v>64</v>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="59" t="s">
+        <v>62</v>
       </c>
       <c r="B42" s="45" t="s">
         <v>51</v>
@@ -2711,7 +2707,7 @@
       <c r="C42" s="47">
         <v>3</v>
       </c>
-      <c r="D42" s="53">
+      <c r="D42" s="52">
         <v>12405</v>
       </c>
       <c r="E42" s="6" t="s">
@@ -2723,14 +2719,10 @@
       <c r="G42" s="31"/>
       <c r="H42" s="30"/>
       <c r="I42" s="30"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="60" t="s">
-        <v>64</v>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="59" t="s">
+        <v>62</v>
       </c>
       <c r="B43" s="45" t="s">
         <v>51</v>
@@ -2738,7 +2730,7 @@
       <c r="C43" s="47">
         <v>3</v>
       </c>
-      <c r="D43" s="53">
+      <c r="D43" s="52">
         <v>12405</v>
       </c>
       <c r="E43" s="5" t="s">
@@ -2750,14 +2742,10 @@
       <c r="G43" s="31"/>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="60" t="s">
-        <v>64</v>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="59" t="s">
+        <v>62</v>
       </c>
       <c r="B44" s="45" t="s">
         <v>51</v>
@@ -2765,7 +2753,7 @@
       <c r="C44" s="47">
         <v>3</v>
       </c>
-      <c r="D44" s="53">
+      <c r="D44" s="52">
         <v>12405</v>
       </c>
       <c r="E44" s="6" t="s">
@@ -2777,12 +2765,8 @@
       <c r="G44" s="31"/>
       <c r="H44" s="30"/>
       <c r="I44" s="30"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-    </row>
-    <row r="45" spans="1:13">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="34"/>
       <c r="B45" s="45"/>
       <c r="C45" s="47"/>
@@ -2797,9 +2781,9 @@
       <c r="L45" s="30"/>
       <c r="M45" s="30"/>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="60" t="s">
-        <v>65</v>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="59" t="s">
+        <v>63</v>
       </c>
       <c r="B46" s="46" t="s">
         <v>51</v>
@@ -2807,7 +2791,7 @@
       <c r="C46" s="13">
         <v>3</v>
       </c>
-      <c r="D46" s="53">
+      <c r="D46" s="52">
         <v>11652</v>
       </c>
       <c r="E46" s="6" t="s">
@@ -2828,9 +2812,9 @@
       <c r="L46" s="30"/>
       <c r="M46" s="30"/>
     </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="60" t="s">
-        <v>65</v>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="59" t="s">
+        <v>63</v>
       </c>
       <c r="B47" s="45" t="s">
         <v>51</v>
@@ -2838,7 +2822,7 @@
       <c r="C47" s="47">
         <v>3</v>
       </c>
-      <c r="D47" s="53">
+      <c r="D47" s="52">
         <v>11652</v>
       </c>
       <c r="E47" s="6" t="s">
@@ -2855,9 +2839,9 @@
       <c r="L47" s="30"/>
       <c r="M47" s="30"/>
     </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="60" t="s">
-        <v>65</v>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="59" t="s">
+        <v>63</v>
       </c>
       <c r="B48" s="45" t="s">
         <v>51</v>
@@ -2865,7 +2849,7 @@
       <c r="C48" s="47">
         <v>3</v>
       </c>
-      <c r="D48" s="53">
+      <c r="D48" s="52">
         <v>11652</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -2882,9 +2866,9 @@
       <c r="L48" s="30"/>
       <c r="M48" s="30"/>
     </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="60" t="s">
-        <v>65</v>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="59" t="s">
+        <v>63</v>
       </c>
       <c r="B49" s="45" t="s">
         <v>51</v>
@@ -2892,7 +2876,7 @@
       <c r="C49" s="47">
         <v>3</v>
       </c>
-      <c r="D49" s="53">
+      <c r="D49" s="52">
         <v>11652</v>
       </c>
       <c r="E49" s="6" t="s">
@@ -2909,7 +2893,7 @@
       <c r="L49" s="30"/>
       <c r="M49" s="30"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="34"/>
       <c r="B50" s="45"/>
       <c r="C50" s="47"/>
@@ -2924,9 +2908,9 @@
       <c r="L50" s="30"/>
       <c r="M50" s="30"/>
     </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="60" t="s">
-        <v>66</v>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="59" t="s">
+        <v>64</v>
       </c>
       <c r="B51" s="46" t="s">
         <v>51</v>
@@ -2934,7 +2918,7 @@
       <c r="C51" s="13">
         <v>3</v>
       </c>
-      <c r="D51" s="53">
+      <c r="D51" s="52">
         <v>10259</v>
       </c>
       <c r="E51" s="6" t="s">
@@ -2955,9 +2939,9 @@
       <c r="L51" s="30"/>
       <c r="M51" s="30"/>
     </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="60" t="s">
-        <v>66</v>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="59" t="s">
+        <v>64</v>
       </c>
       <c r="B52" s="45" t="s">
         <v>51</v>
@@ -2965,7 +2949,7 @@
       <c r="C52" s="47">
         <v>3</v>
       </c>
-      <c r="D52" s="53">
+      <c r="D52" s="52">
         <v>10259</v>
       </c>
       <c r="E52" s="6" t="s">
@@ -2982,9 +2966,9 @@
       <c r="L52" s="30"/>
       <c r="M52" s="30"/>
     </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="60" t="s">
-        <v>66</v>
+    <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="59" t="s">
+        <v>64</v>
       </c>
       <c r="B53" s="45" t="s">
         <v>51</v>
@@ -2992,7 +2976,7 @@
       <c r="C53" s="47">
         <v>3</v>
       </c>
-      <c r="D53" s="53">
+      <c r="D53" s="52">
         <v>10259</v>
       </c>
       <c r="E53" s="5" t="s">
@@ -3008,10 +2992,11 @@
       <c r="K53" s="30"/>
       <c r="L53" s="30"/>
       <c r="M53" s="30"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="60" t="s">
-        <v>66</v>
+      <c r="N53"/>
+    </row>
+    <row r="54" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="59" t="s">
+        <v>64</v>
       </c>
       <c r="B54" s="45" t="s">
         <v>51</v>
@@ -3019,7 +3004,7 @@
       <c r="C54" s="47">
         <v>3</v>
       </c>
-      <c r="D54" s="53">
+      <c r="D54" s="52">
         <v>10259</v>
       </c>
       <c r="E54" s="6" t="s">
@@ -3035,8 +3020,9 @@
       <c r="K54" s="30"/>
       <c r="L54" s="30"/>
       <c r="M54" s="30"/>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54"/>
+    </row>
+    <row r="55" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="34"/>
       <c r="B55" s="45"/>
       <c r="C55" s="47"/>
@@ -3050,10 +3036,11 @@
       <c r="K55" s="30"/>
       <c r="L55" s="30"/>
       <c r="M55" s="30"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="60" t="s">
-        <v>67</v>
+      <c r="N55"/>
+    </row>
+    <row r="56" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="59" t="s">
+        <v>65</v>
       </c>
       <c r="B56" s="46" t="s">
         <v>51</v>
@@ -3061,7 +3048,7 @@
       <c r="C56" s="13">
         <v>3</v>
       </c>
-      <c r="D56" s="53">
+      <c r="D56" s="52">
         <v>10261</v>
       </c>
       <c r="E56" s="6" t="s">
@@ -3081,10 +3068,11 @@
       <c r="K56" s="30"/>
       <c r="L56" s="30"/>
       <c r="M56" s="30"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="60" t="s">
-        <v>67</v>
+      <c r="N56"/>
+    </row>
+    <row r="57" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="59" t="s">
+        <v>65</v>
       </c>
       <c r="B57" s="45" t="s">
         <v>51</v>
@@ -3092,7 +3080,7 @@
       <c r="C57" s="47">
         <v>3</v>
       </c>
-      <c r="D57" s="53">
+      <c r="D57" s="52">
         <v>10261</v>
       </c>
       <c r="E57" s="6" t="s">
@@ -3108,10 +3096,11 @@
       <c r="K57" s="30"/>
       <c r="L57" s="30"/>
       <c r="M57" s="30"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="60" t="s">
-        <v>67</v>
+      <c r="N57"/>
+    </row>
+    <row r="58" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="59" t="s">
+        <v>65</v>
       </c>
       <c r="B58" s="45" t="s">
         <v>51</v>
@@ -3119,7 +3108,7 @@
       <c r="C58" s="47">
         <v>3</v>
       </c>
-      <c r="D58" s="53">
+      <c r="D58" s="52">
         <v>10261</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -3135,10 +3124,11 @@
       <c r="K58" s="30"/>
       <c r="L58" s="30"/>
       <c r="M58" s="30"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="60" t="s">
-        <v>67</v>
+      <c r="N58"/>
+    </row>
+    <row r="59" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="59" t="s">
+        <v>65</v>
       </c>
       <c r="B59" s="45" t="s">
         <v>51</v>
@@ -3146,7 +3136,7 @@
       <c r="C59" s="47">
         <v>3</v>
       </c>
-      <c r="D59" s="53">
+      <c r="D59" s="52">
         <v>10261</v>
       </c>
       <c r="E59" s="6" t="s">
@@ -3162,8 +3152,9 @@
       <c r="K59" s="30"/>
       <c r="L59" s="30"/>
       <c r="M59" s="30"/>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59"/>
+    </row>
+    <row r="60" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="34"/>
       <c r="B60" s="45"/>
       <c r="C60" s="47"/>
@@ -3177,10 +3168,11 @@
       <c r="K60" s="30"/>
       <c r="L60" s="30"/>
       <c r="M60" s="30"/>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="60" t="s">
-        <v>68</v>
+      <c r="N60"/>
+    </row>
+    <row r="61" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="59" t="s">
+        <v>66</v>
       </c>
       <c r="B61" s="46" t="s">
         <v>51</v>
@@ -3188,7 +3180,7 @@
       <c r="C61" s="13">
         <v>3</v>
       </c>
-      <c r="D61" s="53" t="s">
+      <c r="D61" s="52" t="s">
         <v>14</v>
       </c>
       <c r="E61" s="6" t="s">
@@ -3208,10 +3200,11 @@
       <c r="K61" s="30"/>
       <c r="L61" s="30"/>
       <c r="M61" s="30"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="60" t="s">
-        <v>68</v>
+      <c r="N61"/>
+    </row>
+    <row r="62" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="59" t="s">
+        <v>66</v>
       </c>
       <c r="B62" s="45" t="s">
         <v>51</v>
@@ -3219,7 +3212,7 @@
       <c r="C62" s="47">
         <v>3</v>
       </c>
-      <c r="D62" s="53" t="s">
+      <c r="D62" s="52" t="s">
         <v>14</v>
       </c>
       <c r="E62" s="6" t="s">
@@ -3235,10 +3228,11 @@
       <c r="K62" s="30"/>
       <c r="L62" s="30"/>
       <c r="M62" s="30"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="60" t="s">
-        <v>68</v>
+      <c r="N62"/>
+    </row>
+    <row r="63" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="59" t="s">
+        <v>66</v>
       </c>
       <c r="B63" s="45" t="s">
         <v>51</v>
@@ -3246,7 +3240,7 @@
       <c r="C63" s="47">
         <v>3</v>
       </c>
-      <c r="D63" s="53" t="s">
+      <c r="D63" s="52" t="s">
         <v>14</v>
       </c>
       <c r="E63" s="5" t="s">
@@ -3262,10 +3256,11 @@
       <c r="K63" s="30"/>
       <c r="L63" s="30"/>
       <c r="M63" s="30"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="60" t="s">
-        <v>68</v>
+      <c r="N63"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="59" t="s">
+        <v>66</v>
       </c>
       <c r="B64" s="45" t="s">
         <v>51</v>
@@ -3273,7 +3268,7 @@
       <c r="C64" s="47">
         <v>3</v>
       </c>
-      <c r="D64" s="53" t="s">
+      <c r="D64" s="52" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="6" t="s">
@@ -3290,7 +3285,7 @@
       <c r="L64" s="30"/>
       <c r="M64" s="30"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="34"/>
       <c r="B65" s="45"/>
       <c r="C65" s="47"/>
@@ -3305,9 +3300,9 @@
       <c r="L65" s="30"/>
       <c r="M65" s="30"/>
     </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="60" t="s">
-        <v>69</v>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="59" t="s">
+        <v>67</v>
       </c>
       <c r="B66" s="46" t="s">
         <v>51</v>
@@ -3315,7 +3310,7 @@
       <c r="C66" s="13">
         <v>3</v>
       </c>
-      <c r="D66" s="53">
+      <c r="D66" s="52">
         <v>12378</v>
       </c>
       <c r="E66" s="6" t="s">
@@ -3336,9 +3331,9 @@
       <c r="L66" s="30"/>
       <c r="M66" s="30"/>
     </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="60" t="s">
-        <v>69</v>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="59" t="s">
+        <v>67</v>
       </c>
       <c r="B67" s="45" t="s">
         <v>51</v>
@@ -3346,7 +3341,7 @@
       <c r="C67" s="47">
         <v>3</v>
       </c>
-      <c r="D67" s="53">
+      <c r="D67" s="52">
         <v>12378</v>
       </c>
       <c r="E67" s="6" t="s">
@@ -3363,9 +3358,9 @@
       <c r="L67" s="30"/>
       <c r="M67" s="30"/>
     </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="60" t="s">
-        <v>69</v>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="59" t="s">
+        <v>67</v>
       </c>
       <c r="B68" s="45" t="s">
         <v>51</v>
@@ -3373,7 +3368,7 @@
       <c r="C68" s="47">
         <v>3</v>
       </c>
-      <c r="D68" s="53">
+      <c r="D68" s="52">
         <v>12378</v>
       </c>
       <c r="E68" s="5" t="s">
@@ -3390,9 +3385,9 @@
       <c r="L68" s="30"/>
       <c r="M68" s="30"/>
     </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="60" t="s">
-        <v>69</v>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="59" t="s">
+        <v>67</v>
       </c>
       <c r="B69" s="45" t="s">
         <v>51</v>
@@ -3400,7 +3395,7 @@
       <c r="C69" s="47">
         <v>3</v>
       </c>
-      <c r="D69" s="53">
+      <c r="D69" s="52">
         <v>12378</v>
       </c>
       <c r="E69" s="6" t="s">
@@ -3417,7 +3412,7 @@
       <c r="L69" s="30"/>
       <c r="M69" s="30"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="34"/>
       <c r="B70" s="45"/>
       <c r="C70" s="47"/>
@@ -3432,9 +3427,9 @@
       <c r="L70" s="30"/>
       <c r="M70" s="30"/>
     </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="60" t="s">
-        <v>70</v>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="59" t="s">
+        <v>68</v>
       </c>
       <c r="B71" s="46" t="s">
         <v>51</v>
@@ -3442,7 +3437,7 @@
       <c r="C71" s="13">
         <v>3</v>
       </c>
-      <c r="D71" s="53">
+      <c r="D71" s="52">
         <v>11596</v>
       </c>
       <c r="E71" s="6" t="s">
@@ -3463,9 +3458,9 @@
       <c r="L71" s="30"/>
       <c r="M71" s="30"/>
     </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="60" t="s">
-        <v>70</v>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="59" t="s">
+        <v>68</v>
       </c>
       <c r="B72" s="45" t="s">
         <v>51</v>
@@ -3473,7 +3468,7 @@
       <c r="C72" s="47">
         <v>3</v>
       </c>
-      <c r="D72" s="53">
+      <c r="D72" s="52">
         <v>11596</v>
       </c>
       <c r="E72" s="6" t="s">
@@ -3490,9 +3485,9 @@
       <c r="L72" s="30"/>
       <c r="M72" s="30"/>
     </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="60" t="s">
-        <v>70</v>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="59" t="s">
+        <v>68</v>
       </c>
       <c r="B73" s="45" t="s">
         <v>51</v>
@@ -3500,7 +3495,7 @@
       <c r="C73" s="47">
         <v>3</v>
       </c>
-      <c r="D73" s="53">
+      <c r="D73" s="52">
         <v>11596</v>
       </c>
       <c r="E73" s="5" t="s">
@@ -3517,9 +3512,9 @@
       <c r="L73" s="30"/>
       <c r="M73" s="30"/>
     </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="60" t="s">
-        <v>70</v>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="59" t="s">
+        <v>68</v>
       </c>
       <c r="B74" s="45" t="s">
         <v>51</v>
@@ -3527,7 +3522,7 @@
       <c r="C74" s="47">
         <v>3</v>
       </c>
-      <c r="D74" s="53">
+      <c r="D74" s="52">
         <v>11596</v>
       </c>
       <c r="E74" s="6" t="s">
@@ -3544,7 +3539,7 @@
       <c r="L74" s="30"/>
       <c r="M74" s="30"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="34"/>
       <c r="B75" s="45"/>
       <c r="C75" s="47"/>
@@ -3559,9 +3554,9 @@
       <c r="L75" s="30"/>
       <c r="M75" s="30"/>
     </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="60" t="s">
-        <v>71</v>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="59" t="s">
+        <v>69</v>
       </c>
       <c r="B76" s="46" t="s">
         <v>51</v>
@@ -3569,7 +3564,7 @@
       <c r="C76" s="13">
         <v>3</v>
       </c>
-      <c r="D76" s="53">
+      <c r="D76" s="52">
         <v>10254</v>
       </c>
       <c r="E76" s="6" t="s">
@@ -3590,9 +3585,9 @@
       <c r="L76" s="30"/>
       <c r="M76" s="30"/>
     </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="60" t="s">
-        <v>71</v>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="59" t="s">
+        <v>69</v>
       </c>
       <c r="B77" s="45" t="s">
         <v>51</v>
@@ -3600,7 +3595,7 @@
       <c r="C77" s="47">
         <v>3</v>
       </c>
-      <c r="D77" s="53">
+      <c r="D77" s="52">
         <v>10254</v>
       </c>
       <c r="E77" s="6" t="s">
@@ -3612,14 +3607,10 @@
       <c r="G77" s="31"/>
       <c r="H77" s="30"/>
       <c r="I77" s="30"/>
-      <c r="J77" s="33"/>
-      <c r="K77" s="30"/>
-      <c r="L77" s="30"/>
-      <c r="M77" s="30"/>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="60" t="s">
-        <v>71</v>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="59" t="s">
+        <v>69</v>
       </c>
       <c r="B78" s="45" t="s">
         <v>51</v>
@@ -3627,7 +3618,7 @@
       <c r="C78" s="47">
         <v>3</v>
       </c>
-      <c r="D78" s="53">
+      <c r="D78" s="52">
         <v>10254</v>
       </c>
       <c r="E78" s="5" t="s">
@@ -3639,14 +3630,10 @@
       <c r="G78" s="31"/>
       <c r="H78" s="30"/>
       <c r="I78" s="30"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="30"/>
-      <c r="M78" s="30"/>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="60" t="s">
-        <v>71</v>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="59" t="s">
+        <v>69</v>
       </c>
       <c r="B79" s="45" t="s">
         <v>51</v>
@@ -3654,7 +3641,7 @@
       <c r="C79" s="47">
         <v>3</v>
       </c>
-      <c r="D79" s="53">
+      <c r="D79" s="52">
         <v>10254</v>
       </c>
       <c r="E79" s="6" t="s">
@@ -3666,12 +3653,8 @@
       <c r="G79" s="31"/>
       <c r="H79" s="30"/>
       <c r="I79" s="30"/>
-      <c r="J79" s="33"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="30"/>
-      <c r="M79" s="30"/>
-    </row>
-    <row r="80" spans="1:13">
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="34"/>
       <c r="B80" s="45"/>
       <c r="C80" s="47"/>
@@ -3681,13 +3664,9 @@
       <c r="G80" s="31"/>
       <c r="H80" s="30"/>
       <c r="I80" s="30"/>
-      <c r="J80" s="33"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="30"/>
-      <c r="M80" s="30"/>
-    </row>
-    <row r="81" spans="1:13" s="1" customFormat="1">
-      <c r="A81" s="60" t="s">
+    </row>
+    <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="59" t="s">
         <v>72</v>
       </c>
       <c r="B81" s="46" t="s">
@@ -3696,7 +3675,7 @@
       <c r="C81" s="13">
         <v>3</v>
       </c>
-      <c r="D81" s="54">
+      <c r="D81" s="53">
         <v>12386</v>
       </c>
       <c r="E81" s="3" t="s">
@@ -3712,13 +3691,13 @@
         <v>748</v>
       </c>
       <c r="I81" s="38"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
-      <c r="M81" s="38"/>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="60" t="s">
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="59" t="s">
         <v>72</v>
       </c>
       <c r="B82" s="45" t="s">
@@ -3727,7 +3706,7 @@
       <c r="C82" s="47">
         <v>3</v>
       </c>
-      <c r="D82" s="54">
+      <c r="D82" s="53">
         <v>12386</v>
       </c>
       <c r="E82" s="6" t="s">
@@ -3744,8 +3723,8 @@
       <c r="L82" s="30"/>
       <c r="M82" s="30"/>
     </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="60" t="s">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="59" t="s">
         <v>72</v>
       </c>
       <c r="B83" s="45" t="s">
@@ -3754,7 +3733,7 @@
       <c r="C83" s="47">
         <v>3</v>
       </c>
-      <c r="D83" s="54">
+      <c r="D83" s="53">
         <v>12386</v>
       </c>
       <c r="E83" s="5" t="s">
@@ -3771,8 +3750,8 @@
       <c r="L83" s="30"/>
       <c r="M83" s="30"/>
     </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="60" t="s">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="59" t="s">
         <v>72</v>
       </c>
       <c r="B84" s="45" t="s">
@@ -3781,7 +3760,7 @@
       <c r="C84" s="47">
         <v>3</v>
       </c>
-      <c r="D84" s="54">
+      <c r="D84" s="53">
         <v>12386</v>
       </c>
       <c r="E84" s="6" t="s">
@@ -3798,7 +3777,7 @@
       <c r="L84" s="30"/>
       <c r="M84" s="30"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="39"/>
       <c r="B85" s="45"/>
       <c r="C85" s="47"/>
@@ -3813,9 +3792,9 @@
       <c r="L85" s="30"/>
       <c r="M85" s="30"/>
     </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="60" t="s">
-        <v>73</v>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="B86" s="46" t="s">
         <v>51</v>
@@ -3823,7 +3802,7 @@
       <c r="C86" s="13">
         <v>3</v>
       </c>
-      <c r="D86" s="53">
+      <c r="D86" s="52">
         <v>11682</v>
       </c>
       <c r="E86" s="6" t="s">
@@ -3844,9 +3823,9 @@
       <c r="L86" s="30"/>
       <c r="M86" s="30"/>
     </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="60" t="s">
-        <v>73</v>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="B87" s="45" t="s">
         <v>51</v>
@@ -3854,7 +3833,7 @@
       <c r="C87" s="47">
         <v>3</v>
       </c>
-      <c r="D87" s="53">
+      <c r="D87" s="52">
         <v>11682</v>
       </c>
       <c r="E87" s="6" t="s">
@@ -3871,9 +3850,9 @@
       <c r="L87" s="30"/>
       <c r="M87" s="30"/>
     </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="60" t="s">
-        <v>73</v>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="B88" s="45" t="s">
         <v>51</v>
@@ -3881,7 +3860,7 @@
       <c r="C88" s="47">
         <v>3</v>
       </c>
-      <c r="D88" s="53">
+      <c r="D88" s="52">
         <v>11682</v>
       </c>
       <c r="E88" s="5" t="s">
@@ -3898,9 +3877,9 @@
       <c r="L88" s="30"/>
       <c r="M88" s="30"/>
     </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="60" t="s">
-        <v>73</v>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="B89" s="45" t="s">
         <v>51</v>
@@ -3908,7 +3887,7 @@
       <c r="C89" s="47">
         <v>3</v>
       </c>
-      <c r="D89" s="53">
+      <c r="D89" s="52">
         <v>11682</v>
       </c>
       <c r="E89" s="6" t="s">
@@ -3925,7 +3904,7 @@
       <c r="L89" s="30"/>
       <c r="M89" s="30"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="34"/>
       <c r="B90" s="45"/>
       <c r="C90" s="47"/>
@@ -3940,9 +3919,9 @@
       <c r="L90" s="30"/>
       <c r="M90" s="30"/>
     </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="60" t="s">
-        <v>74</v>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" s="59" t="s">
+        <v>70</v>
       </c>
       <c r="B91" s="46" t="s">
         <v>51</v>
@@ -3950,7 +3929,7 @@
       <c r="C91" s="13">
         <v>3</v>
       </c>
-      <c r="D91" s="53">
+      <c r="D91" s="52">
         <v>12220</v>
       </c>
       <c r="E91" s="6" t="s">
@@ -3971,9 +3950,9 @@
       <c r="L91" s="30"/>
       <c r="M91" s="30"/>
     </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="60" t="s">
-        <v>74</v>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" s="59" t="s">
+        <v>70</v>
       </c>
       <c r="B92" s="45" t="s">
         <v>51</v>
@@ -3981,7 +3960,7 @@
       <c r="C92" s="47">
         <v>3</v>
       </c>
-      <c r="D92" s="53">
+      <c r="D92" s="52">
         <v>12220</v>
       </c>
       <c r="E92" s="6" t="s">
@@ -3998,9 +3977,9 @@
       <c r="L92" s="30"/>
       <c r="M92" s="30"/>
     </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="60" t="s">
-        <v>74</v>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" s="59" t="s">
+        <v>70</v>
       </c>
       <c r="B93" s="45" t="s">
         <v>51</v>
@@ -4008,7 +3987,7 @@
       <c r="C93" s="47">
         <v>3</v>
       </c>
-      <c r="D93" s="53">
+      <c r="D93" s="52">
         <v>12220</v>
       </c>
       <c r="E93" s="5" t="s">
@@ -4025,9 +4004,9 @@
       <c r="L93" s="30"/>
       <c r="M93" s="30"/>
     </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="60" t="s">
-        <v>74</v>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" s="59" t="s">
+        <v>70</v>
       </c>
       <c r="B94" s="45" t="s">
         <v>51</v>
@@ -4035,7 +4014,7 @@
       <c r="C94" s="47">
         <v>3</v>
       </c>
-      <c r="D94" s="53">
+      <c r="D94" s="52">
         <v>12220</v>
       </c>
       <c r="E94" s="6" t="s">
@@ -4052,7 +4031,7 @@
       <c r="L94" s="30"/>
       <c r="M94" s="30"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="34"/>
       <c r="B95" s="45"/>
       <c r="C95" s="47"/>
@@ -4067,9 +4046,9 @@
       <c r="L95" s="30"/>
       <c r="M95" s="30"/>
     </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="51" t="s">
-        <v>55</v>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B96" s="46" t="s">
         <v>51</v>
@@ -4077,7 +4056,7 @@
       <c r="C96" s="13">
         <v>3</v>
       </c>
-      <c r="D96" s="52">
+      <c r="D96" s="51">
         <v>12372</v>
       </c>
       <c r="E96" s="6"/>
@@ -4090,9 +4069,9 @@
       <c r="L96" s="30"/>
       <c r="M96" s="30"/>
     </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="51" t="s">
-        <v>56</v>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B97" s="46" t="s">
         <v>51</v>
@@ -4100,7 +4079,7 @@
       <c r="C97" s="13">
         <v>3</v>
       </c>
-      <c r="D97" s="52">
+      <c r="D97" s="51">
         <v>12371</v>
       </c>
       <c r="E97" s="6"/>
@@ -4113,10 +4092,10 @@
       <c r="L97" s="30"/>
       <c r="M97" s="30"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="30"/>
       <c r="B99" s="30"/>
       <c r="C99" s="31"/>
@@ -4131,7 +4110,7 @@
       <c r="L99" s="30"/>
       <c r="M99" s="30"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="30"/>
       <c r="B100" s="30"/>
       <c r="C100" s="31"/>
@@ -4146,7 +4125,7 @@
       <c r="L100" s="30"/>
       <c r="M100" s="30"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="30"/>
       <c r="B101" s="30"/>
       <c r="C101" s="31"/>
@@ -4167,10 +4146,5 @@
   <ignoredErrors>
     <ignoredError sqref="D61" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/GP03FLMB/Omaha_Cal_Info_GP03FLMB_00003.xlsx
+++ b/GP03FLMB/Omaha_Cal_Info_GP03FLMB_00003.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="2460" windowWidth="24900" windowHeight="12615" activeTab="1"/>
+    <workbookView xWindow="2955" yWindow="2460" windowWidth="24900" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -185,12 +185,6 @@
     <t>GP03FLMB-00003</t>
   </si>
   <si>
-    <t>50° 19.82’ N</t>
-  </si>
-  <si>
-    <t>144° 23.90’ W</t>
-  </si>
-  <si>
     <t>TN-323</t>
   </si>
   <si>
@@ -252,6 +246,12 @@
   </si>
   <si>
     <t>GP03FLMB-FMM01-02-ENG000000</t>
+  </si>
+  <si>
+    <t>50° 19.82' N</t>
+  </si>
+  <si>
+    <t>144° 23.90' W</t>
   </si>
 </sst>
 </file>
@@ -405,12 +405,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -445,6 +439,7 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,6 +457,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -640,20 +641,20 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -679,7 +680,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -692,7 +693,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -703,91 +704,91 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -854,9 +855,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="16" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -927,38 +925,44 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="28" fillId="0" borderId="0" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="27" fillId="0" borderId="0" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="215">
@@ -1251,7 +1255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1286,7 +1290,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1495,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1567,30 +1571,40 @@
       <c r="D2" s="18">
         <v>42163</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="23">
         <v>0.89236111111111116</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I2" s="7">
         <v>4145</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K2" s="7"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="L2" s="59">
+        <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
+        <v>50.330333333333336</v>
+      </c>
+      <c r="M2" s="59">
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
+        <v>-144.39833333333334</v>
+      </c>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="42"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="41"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1607,11 +1621,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F111" sqref="F111"/>
+      <selection pane="bottomRight" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1629,2516 +1643,2516 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="13">
         <v>3</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="51">
         <v>1004</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>1.6750000000000001E-6</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="29">
         <v>29</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="47">
-        <v>3</v>
-      </c>
-      <c r="D4" s="52">
+      <c r="A4" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="46">
+        <v>3</v>
+      </c>
+      <c r="D4" s="51">
         <v>1004</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="49">
-        <v>51</v>
-      </c>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="48">
+        <v>51</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="47">
-        <v>3</v>
-      </c>
-      <c r="D5" s="52">
+      <c r="A5" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="46">
+        <v>3</v>
+      </c>
+      <c r="D5" s="51">
         <v>1004</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="48">
         <v>1.21E-2</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="47">
-        <v>3</v>
-      </c>
-      <c r="D6" s="52">
+      <c r="A6" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="46">
+        <v>3</v>
+      </c>
+      <c r="D6" s="51">
         <v>1004</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="48">
         <v>55</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="47">
-        <v>3</v>
-      </c>
-      <c r="D7" s="52">
+      <c r="A7" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="46">
+        <v>3</v>
+      </c>
+      <c r="D7" s="51">
         <v>1004</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="48">
         <v>9.0399999999999994E-2</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="47">
-        <v>3</v>
-      </c>
-      <c r="D8" s="52">
+      <c r="A8" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="46">
+        <v>3</v>
+      </c>
+      <c r="D8" s="51">
         <v>1004</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="57">
         <v>49</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="47">
-        <v>3</v>
-      </c>
-      <c r="D9" s="52">
+      <c r="A9" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="46">
+        <v>3</v>
+      </c>
+      <c r="D9" s="51">
         <v>1004</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="55">
         <v>124</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="47">
-        <v>3</v>
-      </c>
-      <c r="D10" s="52">
+      <c r="A10" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="46">
+        <v>3</v>
+      </c>
+      <c r="D10" s="51">
         <v>1004</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="39">
         <v>700</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="47">
-        <v>3</v>
-      </c>
-      <c r="D11" s="52">
+      <c r="A11" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="46">
+        <v>3</v>
+      </c>
+      <c r="D11" s="51">
         <v>1004</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="55">
         <v>1.0760000000000001</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="47">
-        <v>3</v>
-      </c>
-      <c r="D12" s="52">
+      <c r="A12" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="46">
+        <v>3</v>
+      </c>
+      <c r="D12" s="51">
         <v>1004</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="39">
         <v>3.9E-2</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="46" t="s">
+      <c r="A14" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="13">
         <v>3</v>
       </c>
-      <c r="D14" s="52" t="s">
-        <v>56</v>
+      <c r="D14" s="51" t="s">
+        <v>54</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="48">
         <v>17533</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="29">
         <v>29</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="47">
-        <v>3</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>56</v>
+      <c r="A15" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="46">
+        <v>3</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>54</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="48">
         <v>2229</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="47">
-        <v>3</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>56</v>
+      <c r="A16" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="46">
+        <v>3</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>54</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="48">
         <v>101</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="47">
-        <v>3</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>56</v>
+      <c r="A17" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="46">
+        <v>3</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>54</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="48">
         <v>38502</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="47">
-        <v>3</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>56</v>
+      <c r="A18" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="46">
+        <v>3</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>54</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="48">
         <v>1</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="47">
-        <v>3</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>56</v>
+      <c r="A19" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="46">
+        <v>3</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>54</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="57">
         <v>0</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="47">
-        <v>3</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="40" t="s">
+      <c r="A20" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="46">
+        <v>3</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="39">
         <v>35</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="13">
         <v>3</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="51">
         <v>391</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="49">
         <v>50.330300000000001</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="29">
         <v>29</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="47">
-        <v>3</v>
-      </c>
-      <c r="D23" s="52">
+      <c r="B23" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="46">
+        <v>3</v>
+      </c>
+      <c r="D23" s="51">
         <v>391</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="50">
+      <c r="F23" s="49">
         <v>-144.39830000000001</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="47">
-        <v>3</v>
-      </c>
-      <c r="D24" s="52">
+      <c r="B24" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="46">
+        <v>3</v>
+      </c>
+      <c r="D24" s="51">
         <v>391</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
+      <c r="F24" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="46" t="s">
+      <c r="A26" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="13">
         <v>3</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D26" s="51">
         <v>22846</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="50">
+      <c r="F26" s="49">
         <v>50.330300000000001</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="29">
         <v>500</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="47">
-        <v>3</v>
-      </c>
-      <c r="D27" s="52">
+      <c r="A27" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="46">
+        <v>3</v>
+      </c>
+      <c r="D27" s="51">
         <v>22846</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="50">
+      <c r="F27" s="49">
         <v>-144.39830000000001</v>
       </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="47">
-        <v>3</v>
-      </c>
-      <c r="D28" s="52">
+      <c r="A28" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="46">
+        <v>3</v>
+      </c>
+      <c r="D28" s="51">
         <v>22846</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="50">
+      <c r="F28" s="49">
         <v>50.330300000000001</v>
       </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="47">
-        <v>3</v>
-      </c>
-      <c r="D29" s="52">
+      <c r="A29" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="46">
+        <v>3</v>
+      </c>
+      <c r="D29" s="51">
         <v>22846</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="50">
+      <c r="F29" s="49">
         <v>-144.39830000000001</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="47">
-        <v>3</v>
-      </c>
-      <c r="D30" s="52">
+      <c r="A30" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="46">
+        <v>3</v>
+      </c>
+      <c r="D30" s="51">
         <v>22846</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="48">
         <v>500000</v>
       </c>
-      <c r="G30" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
+      <c r="G30" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="47">
-        <v>3</v>
-      </c>
-      <c r="D31" s="52">
+      <c r="A31" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="46">
+        <v>3</v>
+      </c>
+      <c r="D31" s="51">
         <v>22846</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="55">
+      <c r="F31" s="54">
         <v>0.45</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="47">
-        <v>3</v>
-      </c>
-      <c r="D32" s="52">
+      <c r="A32" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="46">
+        <v>3</v>
+      </c>
+      <c r="D32" s="51">
         <v>22846</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="55">
+      <c r="F32" s="54">
         <v>0.45</v>
       </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="47">
-        <v>3</v>
-      </c>
-      <c r="D33" s="52">
+      <c r="A33" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="46">
+        <v>3</v>
+      </c>
+      <c r="D33" s="51">
         <v>22846</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="55">
+      <c r="F33" s="54">
         <v>0.45</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="47">
-        <v>3</v>
-      </c>
-      <c r="D34" s="52">
+      <c r="A34" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="46">
+        <v>3</v>
+      </c>
+      <c r="D34" s="51">
         <v>22846</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="55">
+      <c r="F34" s="54">
         <v>0.45</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="48"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="46" t="s">
+      <c r="A36" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C36" s="13">
         <v>3</v>
       </c>
-      <c r="D36" s="52">
+      <c r="D36" s="51">
         <v>12638</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="49">
+      <c r="F36" s="48">
         <v>1450</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="G36" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="29">
         <v>29</v>
       </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="47">
-        <v>3</v>
-      </c>
-      <c r="D37" s="52">
+      <c r="A37" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="46">
+        <v>3</v>
+      </c>
+      <c r="D37" s="51">
         <v>12638</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="50">
+      <c r="F37" s="49">
         <v>50.330300000000001</v>
       </c>
-      <c r="G37" s="31"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="47">
-        <v>3</v>
-      </c>
-      <c r="D38" s="52">
+      <c r="A38" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="46">
+        <v>3</v>
+      </c>
+      <c r="D38" s="51">
         <v>12638</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="50">
+      <c r="F38" s="49">
         <v>-144.39830000000001</v>
       </c>
-      <c r="G38" s="31"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="47">
-        <v>3</v>
-      </c>
-      <c r="D39" s="52">
+      <c r="A39" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="46">
+        <v>3</v>
+      </c>
+      <c r="D39" s="51">
         <v>12638</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="49">
+      <c r="F39" s="48">
         <v>38</v>
       </c>
-      <c r="G39" s="31"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="34"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="46" t="s">
+      <c r="A41" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="13">
         <v>3</v>
       </c>
-      <c r="D41" s="52">
+      <c r="D41" s="51">
         <v>12405</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="49">
+      <c r="F41" s="48">
         <v>1450</v>
       </c>
-      <c r="G41" s="31" t="s">
+      <c r="G41" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="33">
+      <c r="H41" s="32">
         <v>39</v>
       </c>
-      <c r="I41" s="30"/>
+      <c r="I41" s="29"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="47">
-        <v>3</v>
-      </c>
-      <c r="D42" s="52">
+      <c r="A42" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="46">
+        <v>3</v>
+      </c>
+      <c r="D42" s="51">
         <v>12405</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="50">
+      <c r="F42" s="49">
         <v>50.330300000000001</v>
       </c>
-      <c r="G42" s="31"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="47">
-        <v>3</v>
-      </c>
-      <c r="D43" s="52">
+      <c r="A43" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="46">
+        <v>3</v>
+      </c>
+      <c r="D43" s="51">
         <v>12405</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="50">
+      <c r="F43" s="49">
         <v>-144.39830000000001</v>
       </c>
-      <c r="G43" s="31"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="47">
-        <v>3</v>
-      </c>
-      <c r="D44" s="52">
+      <c r="A44" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="46">
+        <v>3</v>
+      </c>
+      <c r="D44" s="51">
         <v>12405</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="49">
+      <c r="F44" s="48">
         <v>45</v>
       </c>
-      <c r="G44" s="31"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="34"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="48"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="47"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="46" t="s">
+      <c r="A46" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C46" s="13">
         <v>3</v>
       </c>
-      <c r="D46" s="52">
+      <c r="D46" s="51">
         <v>11652</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="49">
+      <c r="F46" s="48">
         <v>1450</v>
       </c>
-      <c r="G46" s="31" t="s">
+      <c r="G46" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="33">
+      <c r="H46" s="32">
         <v>59</v>
       </c>
-      <c r="I46" s="30"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="47">
-        <v>3</v>
-      </c>
-      <c r="D47" s="52">
+      <c r="A47" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="46">
+        <v>3</v>
+      </c>
+      <c r="D47" s="51">
         <v>11652</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="50">
+      <c r="F47" s="49">
         <v>50.330300000000001</v>
       </c>
-      <c r="G47" s="31"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="47">
-        <v>3</v>
-      </c>
-      <c r="D48" s="52">
+      <c r="A48" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="46">
+        <v>3</v>
+      </c>
+      <c r="D48" s="51">
         <v>11652</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="50">
+      <c r="F48" s="49">
         <v>-144.39830000000001</v>
       </c>
-      <c r="G48" s="31"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="47">
-        <v>3</v>
-      </c>
-      <c r="D49" s="52">
+      <c r="A49" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="46">
+        <v>3</v>
+      </c>
+      <c r="D49" s="51">
         <v>11652</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="49">
+      <c r="F49" s="48">
         <v>52</v>
       </c>
-      <c r="G49" s="31"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="34"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="48"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="46" t="s">
+      <c r="A51" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="13">
         <v>3</v>
       </c>
-      <c r="D51" s="52">
+      <c r="D51" s="51">
         <v>10259</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F51" s="49">
+      <c r="F51" s="48">
         <v>1450</v>
       </c>
-      <c r="G51" s="31" t="s">
+      <c r="G51" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="33">
+      <c r="H51" s="32">
         <v>90</v>
       </c>
-      <c r="I51" s="30"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="47">
-        <v>3</v>
-      </c>
-      <c r="D52" s="52">
+      <c r="A52" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="46">
+        <v>3</v>
+      </c>
+      <c r="D52" s="51">
         <v>10259</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="50">
+      <c r="F52" s="49">
         <v>50.330300000000001</v>
       </c>
-      <c r="G52" s="31"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
     </row>
     <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="47">
-        <v>3</v>
-      </c>
-      <c r="D53" s="52">
+      <c r="A53" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="46">
+        <v>3</v>
+      </c>
+      <c r="D53" s="51">
         <v>10259</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="50">
+      <c r="F53" s="49">
         <v>-144.39830000000001</v>
       </c>
-      <c r="G53" s="31"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
       <c r="N53"/>
     </row>
     <row r="54" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="47">
-        <v>3</v>
-      </c>
-      <c r="D54" s="52">
+      <c r="A54" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="46">
+        <v>3</v>
+      </c>
+      <c r="D54" s="51">
         <v>10259</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F54" s="49">
+      <c r="F54" s="48">
         <v>59</v>
       </c>
-      <c r="G54" s="31"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
       <c r="N54"/>
     </row>
     <row r="55" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="48"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
       <c r="N55"/>
     </row>
     <row r="56" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="46" t="s">
+      <c r="A56" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C56" s="13">
         <v>3</v>
       </c>
-      <c r="D56" s="52">
+      <c r="D56" s="51">
         <v>10261</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F56" s="49">
+      <c r="F56" s="48">
         <v>1450</v>
       </c>
-      <c r="G56" s="31" t="s">
+      <c r="G56" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="33">
+      <c r="H56" s="32">
         <v>130</v>
       </c>
-      <c r="I56" s="30"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
       <c r="N56"/>
     </row>
     <row r="57" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="47">
-        <v>3</v>
-      </c>
-      <c r="D57" s="52">
+      <c r="A57" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="46">
+        <v>3</v>
+      </c>
+      <c r="D57" s="51">
         <v>10261</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="50">
+      <c r="F57" s="49">
         <v>50.330300000000001</v>
       </c>
-      <c r="G57" s="31"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
       <c r="N57"/>
     </row>
     <row r="58" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" s="47">
-        <v>3</v>
-      </c>
-      <c r="D58" s="52">
+      <c r="A58" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="46">
+        <v>3</v>
+      </c>
+      <c r="D58" s="51">
         <v>10261</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="50">
+      <c r="F58" s="49">
         <v>-144.39830000000001</v>
       </c>
-      <c r="G58" s="31"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
       <c r="N58"/>
     </row>
     <row r="59" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" s="47">
-        <v>3</v>
-      </c>
-      <c r="D59" s="52">
+      <c r="A59" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="46">
+        <v>3</v>
+      </c>
+      <c r="D59" s="51">
         <v>10261</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F59" s="49">
+      <c r="F59" s="48">
         <v>61</v>
       </c>
-      <c r="G59" s="31"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
       <c r="N59"/>
     </row>
     <row r="60" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="48"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="47"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
       <c r="N60"/>
     </row>
     <row r="61" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="46" t="s">
+      <c r="A61" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C61" s="13">
         <v>3</v>
       </c>
-      <c r="D61" s="52" t="s">
+      <c r="D61" s="51" t="s">
         <v>14</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F61" s="49">
+      <c r="F61" s="48">
         <v>1450</v>
       </c>
-      <c r="G61" s="31" t="s">
+      <c r="G61" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="33">
+      <c r="H61" s="32">
         <v>180</v>
       </c>
-      <c r="I61" s="30"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
       <c r="N61"/>
     </row>
     <row r="62" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="47">
-        <v>3</v>
-      </c>
-      <c r="D62" s="52" t="s">
+      <c r="A62" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="46">
+        <v>3</v>
+      </c>
+      <c r="D62" s="51" t="s">
         <v>14</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F62" s="50">
+      <c r="F62" s="49">
         <v>50.330300000000001</v>
       </c>
-      <c r="G62" s="31"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
       <c r="N62"/>
     </row>
     <row r="63" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" s="47">
-        <v>3</v>
-      </c>
-      <c r="D63" s="52" t="s">
+      <c r="A63" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="46">
+        <v>3</v>
+      </c>
+      <c r="D63" s="51" t="s">
         <v>14</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F63" s="50">
+      <c r="F63" s="49">
         <v>-144.39830000000001</v>
       </c>
-      <c r="G63" s="31"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
       <c r="N63"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" s="47">
-        <v>3</v>
-      </c>
-      <c r="D64" s="52" t="s">
+      <c r="A64" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="46">
+        <v>3</v>
+      </c>
+      <c r="D64" s="51" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="49">
+      <c r="F64" s="48">
         <v>62</v>
       </c>
-      <c r="G64" s="31"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="34"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="48"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="47"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="46" t="s">
+      <c r="A66" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C66" s="13">
         <v>3</v>
       </c>
-      <c r="D66" s="52">
+      <c r="D66" s="51">
         <v>12378</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F66" s="49">
+      <c r="F66" s="48">
         <v>1450</v>
       </c>
-      <c r="G66" s="31" t="s">
+      <c r="G66" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="33">
+      <c r="H66" s="32">
         <v>250</v>
       </c>
-      <c r="I66" s="30"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="47">
-        <v>3</v>
-      </c>
-      <c r="D67" s="52">
+      <c r="A67" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="46">
+        <v>3</v>
+      </c>
+      <c r="D67" s="51">
         <v>12378</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F67" s="50">
+      <c r="F67" s="49">
         <v>50.330300000000001</v>
       </c>
-      <c r="G67" s="31"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" s="47">
-        <v>3</v>
-      </c>
-      <c r="D68" s="52">
+      <c r="A68" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="46">
+        <v>3</v>
+      </c>
+      <c r="D68" s="51">
         <v>12378</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F68" s="50">
+      <c r="F68" s="49">
         <v>-144.39830000000001</v>
       </c>
-      <c r="G68" s="31"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69" s="47">
-        <v>3</v>
-      </c>
-      <c r="D69" s="52">
+      <c r="A69" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="46">
+        <v>3</v>
+      </c>
+      <c r="D69" s="51">
         <v>12378</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="49">
+      <c r="F69" s="48">
         <v>78</v>
       </c>
-      <c r="G69" s="31"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="34"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="48"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="47"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B71" s="46" t="s">
+      <c r="A71" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C71" s="13">
         <v>3</v>
       </c>
-      <c r="D71" s="52">
+      <c r="D71" s="51">
         <v>11596</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="49">
+      <c r="F71" s="48">
         <v>1450</v>
       </c>
-      <c r="G71" s="31" t="s">
+      <c r="G71" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="33">
+      <c r="H71" s="32">
         <v>350</v>
       </c>
-      <c r="I71" s="30"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="47">
-        <v>3</v>
-      </c>
-      <c r="D72" s="52">
+      <c r="A72" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="46">
+        <v>3</v>
+      </c>
+      <c r="D72" s="51">
         <v>11596</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F72" s="50">
+      <c r="F72" s="49">
         <v>50.330300000000001</v>
       </c>
-      <c r="G72" s="31"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" s="47">
-        <v>3</v>
-      </c>
-      <c r="D73" s="52">
+      <c r="A73" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="46">
+        <v>3</v>
+      </c>
+      <c r="D73" s="51">
         <v>11596</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F73" s="50">
+      <c r="F73" s="49">
         <v>-144.39830000000001</v>
       </c>
-      <c r="G73" s="31"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B74" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="47">
-        <v>3</v>
-      </c>
-      <c r="D74" s="52">
+      <c r="A74" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="46">
+        <v>3</v>
+      </c>
+      <c r="D74" s="51">
         <v>11596</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F74" s="49">
+      <c r="F74" s="48">
         <v>96</v>
       </c>
-      <c r="G74" s="31"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="34"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="48"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="47"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="B76" s="46" t="s">
+      <c r="A76" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C76" s="13">
         <v>3</v>
       </c>
-      <c r="D76" s="52">
+      <c r="D76" s="51">
         <v>10254</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F76" s="49">
+      <c r="F76" s="48">
         <v>1450</v>
       </c>
-      <c r="G76" s="31" t="s">
+      <c r="G76" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H76" s="33">
+      <c r="H76" s="32">
         <v>501</v>
       </c>
-      <c r="I76" s="30"/>
-      <c r="J76" s="33"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="30"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="B77" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C77" s="47">
-        <v>3</v>
-      </c>
-      <c r="D77" s="52">
+      <c r="A77" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="46">
+        <v>3</v>
+      </c>
+      <c r="D77" s="51">
         <v>10254</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F77" s="50">
+      <c r="F77" s="49">
         <v>50.330300000000001</v>
       </c>
-      <c r="G77" s="31"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="B78" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78" s="47">
-        <v>3</v>
-      </c>
-      <c r="D78" s="52">
+      <c r="A78" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="46">
+        <v>3</v>
+      </c>
+      <c r="D78" s="51">
         <v>10254</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F78" s="50">
+      <c r="F78" s="49">
         <v>-144.39830000000001</v>
       </c>
-      <c r="G78" s="31"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C79" s="47">
-        <v>3</v>
-      </c>
-      <c r="D79" s="52">
+      <c r="A79" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="46">
+        <v>3</v>
+      </c>
+      <c r="D79" s="51">
         <v>10254</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F79" s="49">
+      <c r="F79" s="48">
         <v>54</v>
       </c>
-      <c r="G79" s="31"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="34"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="48"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="47"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
     </row>
     <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="B81" s="46" t="s">
+      <c r="A81" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C81" s="13">
         <v>3</v>
       </c>
-      <c r="D81" s="53">
+      <c r="D81" s="52">
         <v>12386</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F81" s="49">
+      <c r="F81" s="48">
         <v>5076</v>
       </c>
-      <c r="G81" s="37" t="s">
+      <c r="G81" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H81" s="37">
+      <c r="H81" s="36">
         <v>748</v>
       </c>
-      <c r="I81" s="38"/>
+      <c r="I81" s="37"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="B82" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C82" s="47">
-        <v>3</v>
-      </c>
-      <c r="D82" s="53">
+      <c r="A82" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="46">
+        <v>3</v>
+      </c>
+      <c r="D82" s="52">
         <v>12386</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F82" s="50">
+      <c r="F82" s="49">
         <v>50.330300000000001</v>
       </c>
-      <c r="G82" s="31"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="29"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="B83" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" s="47">
-        <v>3</v>
-      </c>
-      <c r="D83" s="53">
+      <c r="A83" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="46">
+        <v>3</v>
+      </c>
+      <c r="D83" s="52">
         <v>12386</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F83" s="50">
+      <c r="F83" s="49">
         <v>-144.39830000000001</v>
       </c>
-      <c r="G83" s="31"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="33"/>
-      <c r="K83" s="30"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="B84" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" s="47">
-        <v>3</v>
-      </c>
-      <c r="D84" s="53">
+      <c r="A84" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="46">
+        <v>3</v>
+      </c>
+      <c r="D84" s="52">
         <v>12386</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F84" s="49">
+      <c r="F84" s="48">
         <v>86</v>
       </c>
-      <c r="G84" s="31"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="33"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="39"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="48"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="47"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="30"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B86" s="46" t="s">
+      <c r="A86" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C86" s="13">
         <v>3</v>
       </c>
-      <c r="D86" s="52">
+      <c r="D86" s="51">
         <v>11682</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F86" s="49">
+      <c r="F86" s="48">
         <v>5076</v>
       </c>
-      <c r="G86" s="31" t="s">
+      <c r="G86" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H86" s="33">
+      <c r="H86" s="32">
         <v>999</v>
       </c>
-      <c r="I86" s="30"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="30"/>
-      <c r="L86" s="30"/>
-      <c r="M86" s="30"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="29"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B87" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C87" s="47">
-        <v>3</v>
-      </c>
-      <c r="D87" s="52">
+      <c r="A87" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="46">
+        <v>3</v>
+      </c>
+      <c r="D87" s="51">
         <v>11682</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F87" s="50">
+      <c r="F87" s="49">
         <v>50.330300000000001</v>
       </c>
-      <c r="G87" s="31"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="30"/>
-      <c r="M87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B88" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C88" s="47">
-        <v>3</v>
-      </c>
-      <c r="D88" s="52">
+      <c r="A88" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="46">
+        <v>3</v>
+      </c>
+      <c r="D88" s="51">
         <v>11682</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F88" s="50">
+      <c r="F88" s="49">
         <v>-144.39830000000001</v>
       </c>
-      <c r="G88" s="31"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="30"/>
-      <c r="L88" s="30"/>
-      <c r="M88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="29"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B89" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C89" s="47">
-        <v>3</v>
-      </c>
-      <c r="D89" s="52">
+      <c r="A89" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" s="46">
+        <v>3</v>
+      </c>
+      <c r="D89" s="51">
         <v>11682</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F89" s="49">
+      <c r="F89" s="48">
         <v>82</v>
       </c>
-      <c r="G89" s="31"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="33"/>
-      <c r="K89" s="30"/>
-      <c r="L89" s="30"/>
-      <c r="M89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" s="34"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="48"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="47"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="30"/>
-      <c r="L90" s="30"/>
-      <c r="M90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B91" s="46" t="s">
+      <c r="A91" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C91" s="13">
         <v>3</v>
       </c>
-      <c r="D91" s="52">
+      <c r="D91" s="51">
         <v>12220</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="49">
+      <c r="F91" s="48">
         <v>5076</v>
       </c>
-      <c r="G91" s="31" t="s">
+      <c r="G91" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H91" s="33">
+      <c r="H91" s="32">
         <v>1501</v>
       </c>
-      <c r="I91" s="30"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="30"/>
-      <c r="L91" s="30"/>
-      <c r="M91" s="30"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A92" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B92" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C92" s="47">
-        <v>3</v>
-      </c>
-      <c r="D92" s="52">
+      <c r="A92" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B92" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" s="46">
+        <v>3</v>
+      </c>
+      <c r="D92" s="51">
         <v>12220</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F92" s="50">
+      <c r="F92" s="49">
         <v>50.330300000000001</v>
       </c>
-      <c r="G92" s="31"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="30"/>
-      <c r="L92" s="30"/>
-      <c r="M92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="29"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B93" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C93" s="47">
-        <v>3</v>
-      </c>
-      <c r="D93" s="52">
+      <c r="A93" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B93" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" s="46">
+        <v>3</v>
+      </c>
+      <c r="D93" s="51">
         <v>12220</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="50">
+      <c r="F93" s="49">
         <v>-144.39830000000001</v>
       </c>
-      <c r="G93" s="31"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="33"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="30"/>
-      <c r="M93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B94" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C94" s="47">
-        <v>3</v>
-      </c>
-      <c r="D94" s="52">
+      <c r="A94" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B94" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" s="46">
+        <v>3</v>
+      </c>
+      <c r="D94" s="51">
         <v>12220</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F94" s="49">
+      <c r="F94" s="48">
         <v>70</v>
       </c>
-      <c r="G94" s="31"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="30"/>
-      <c r="L94" s="30"/>
-      <c r="M94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="34"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="47"/>
-      <c r="D95" s="48"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="47"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="30"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="33"/>
-      <c r="K95" s="30"/>
-      <c r="L95" s="30"/>
-      <c r="M95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="29"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B96" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C96" s="13">
         <v>3</v>
       </c>
-      <c r="D96" s="51">
+      <c r="D96" s="50">
         <v>12372</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="33"/>
-      <c r="K96" s="30"/>
-      <c r="L96" s="30"/>
-      <c r="M96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B97" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B97" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C97" s="13">
         <v>3</v>
       </c>
-      <c r="D97" s="51">
+      <c r="D97" s="50">
         <v>12371</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="30"/>
-      <c r="J97" s="33"/>
-      <c r="K97" s="30"/>
-      <c r="L97" s="30"/>
-      <c r="M97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="32"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="29"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G98" s="2"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="30"/>
-      <c r="B99" s="30"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="30"/>
-      <c r="K99" s="30"/>
-      <c r="L99" s="30"/>
-      <c r="M99" s="30"/>
+      <c r="A99" s="29"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="30"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="30"/>
-      <c r="K100" s="30"/>
-      <c r="L100" s="30"/>
-      <c r="M100" s="30"/>
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="30"/>
-      <c r="B101" s="30"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="30"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="31"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="30"/>
-      <c r="J101" s="30"/>
-      <c r="K101" s="30"/>
-      <c r="L101" s="30"/>
-      <c r="M101" s="30"/>
+      <c r="A101" s="29"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
